--- a/strategy/全球购策略/data/weight.xlsx
+++ b/strategy/全球购策略/data/weight.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1922,6 +1922,57 @@
         <v>0.1000000014901161</v>
       </c>
     </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2">
+        <v>43644</v>
+      </c>
+      <c r="B91">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="C91">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="D91">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="E91">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2">
+        <v>43677</v>
+      </c>
+      <c r="B92">
+        <v>0.3508771955966949</v>
+      </c>
+      <c r="C92">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="D92">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="E92">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2">
+        <v>43707</v>
+      </c>
+      <c r="B93">
+        <v>0.3030303120613098</v>
+      </c>
+      <c r="C93">
+        <v>0.3030303120613098</v>
+      </c>
+      <c r="D93">
+        <v>0.1939393877983093</v>
+      </c>
+      <c r="E93">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/strategy/全球购策略/data/weight.xlsx
+++ b/strategy/全球购策略/data/weight.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1973,6 +1973,23 @@
         <v>0.2000000029802322</v>
       </c>
     </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2">
+        <v>43738</v>
+      </c>
+      <c r="B94">
+        <v>0.3030303120613098</v>
+      </c>
+      <c r="C94">
+        <v>0.3030303120613098</v>
+      </c>
+      <c r="D94">
+        <v>0.1939393877983093</v>
+      </c>
+      <c r="E94">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/strategy/全球购策略/data/weight.xlsx
+++ b/strategy/全球购策略/data/weight.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,356 +411,356 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>40939</v>
+        <v>38383</v>
       </c>
       <c r="B2">
-        <v>0.3545454442501068</v>
+        <v>0.4555555582046509</v>
       </c>
       <c r="C2">
-        <v>0.300000011920929</v>
+        <v>0.2222222238779068</v>
       </c>
       <c r="D2">
-        <v>0.2454545497894287</v>
+        <v>0.3222222328186035</v>
       </c>
       <c r="E2">
-        <v>0.1000000014901161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>40968</v>
+        <v>38411</v>
       </c>
       <c r="B3">
-        <v>0.3545454442501068</v>
+        <v>0.4555555582046509</v>
       </c>
       <c r="C3">
-        <v>0.300000011920929</v>
+        <v>0.2222222238779068</v>
       </c>
       <c r="D3">
-        <v>0.2454545497894287</v>
+        <v>0.3222222328186035</v>
       </c>
       <c r="E3">
-        <v>0.1000000014901161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40998</v>
+        <v>38442</v>
       </c>
       <c r="B4">
-        <v>0.3899999856948853</v>
+        <v>0.4141414165496826</v>
       </c>
       <c r="C4">
-        <v>0.3300000131130219</v>
+        <v>0.2929292917251587</v>
       </c>
       <c r="D4">
-        <v>0.1800000071525574</v>
+        <v>0.2929292917251587</v>
       </c>
       <c r="E4">
-        <v>0.1000000014901161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>41029</v>
+        <v>38471</v>
       </c>
       <c r="B5">
-        <v>0.3545454442501068</v>
+        <v>0.4270833432674408</v>
       </c>
       <c r="C5">
-        <v>0.300000011920929</v>
+        <v>0.2083333283662796</v>
       </c>
       <c r="D5">
-        <v>0.2454545497894287</v>
+        <v>0.3645833432674408</v>
       </c>
       <c r="E5">
-        <v>0.1000000014901161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41060</v>
+        <v>38503</v>
       </c>
       <c r="B6">
-        <v>0.334285706281662</v>
+        <v>0.4555555582046509</v>
       </c>
       <c r="C6">
-        <v>0.334285706281662</v>
+        <v>0.2222222238779068</v>
       </c>
       <c r="D6">
-        <v>0.2314285784959793</v>
+        <v>0.3222222328186035</v>
       </c>
       <c r="E6">
-        <v>0.1000000014901161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41089</v>
+        <v>38533</v>
       </c>
       <c r="B7">
-        <v>0.3545454442501068</v>
+        <v>0.4141414165496826</v>
       </c>
       <c r="C7">
-        <v>0.300000011920929</v>
+        <v>0.2929292917251587</v>
       </c>
       <c r="D7">
-        <v>0.2454545497894287</v>
+        <v>0.2929292917251587</v>
       </c>
       <c r="E7">
-        <v>0.1000000014901161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41121</v>
+        <v>38562</v>
       </c>
       <c r="B8">
-        <v>0.3545454442501068</v>
+        <v>0.4141414165496826</v>
       </c>
       <c r="C8">
-        <v>0.300000011920929</v>
+        <v>0.2929292917251587</v>
       </c>
       <c r="D8">
-        <v>0.2454545497894287</v>
+        <v>0.2929292917251587</v>
       </c>
       <c r="E8">
-        <v>0.1000000014901161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>41152</v>
+        <v>38595</v>
       </c>
       <c r="B9">
-        <v>0.3545454442501068</v>
+        <v>0.4141414165496826</v>
       </c>
       <c r="C9">
-        <v>0.300000011920929</v>
+        <v>0.2929292917251587</v>
       </c>
       <c r="D9">
-        <v>0.2454545497894287</v>
+        <v>0.2929292917251587</v>
       </c>
       <c r="E9">
-        <v>0.1000000014901161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41180</v>
+        <v>38625</v>
       </c>
       <c r="B10">
-        <v>0.4178571403026581</v>
+        <v>0.4555555582046509</v>
       </c>
       <c r="C10">
-        <v>0.2892857193946838</v>
+        <v>0.2222222238779068</v>
       </c>
       <c r="D10">
-        <v>0.1928571462631226</v>
+        <v>0.3222222328186035</v>
       </c>
       <c r="E10">
-        <v>0.1000000014901161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41213</v>
+        <v>38656</v>
       </c>
       <c r="B11">
-        <v>0.4178571403026581</v>
+        <v>0.4141414165496826</v>
       </c>
       <c r="C11">
-        <v>0.2892857193946838</v>
+        <v>0.2929292917251587</v>
       </c>
       <c r="D11">
-        <v>0.1928571462631226</v>
+        <v>0.2929292917251587</v>
       </c>
       <c r="E11">
-        <v>0.1000000014901161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41243</v>
+        <v>38686</v>
       </c>
       <c r="B12">
-        <v>0.4178571403026581</v>
+        <v>0.4141414165496826</v>
       </c>
       <c r="C12">
-        <v>0.2892857193946838</v>
+        <v>0.2929292917251587</v>
       </c>
       <c r="D12">
-        <v>0.1928571462631226</v>
+        <v>0.2929292917251587</v>
       </c>
       <c r="E12">
-        <v>0.1000000014901161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41274</v>
+        <v>38716</v>
       </c>
       <c r="B13">
-        <v>0.3774193525314331</v>
+        <v>0.3904761970043182</v>
       </c>
       <c r="C13">
-        <v>0.2612903118133545</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="D13">
-        <v>0.2612903118133545</v>
+        <v>0.2761904895305634</v>
       </c>
       <c r="E13">
-        <v>0.1000000014901161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41305</v>
+        <v>38748</v>
       </c>
       <c r="B14">
-        <v>0.3807692229747772</v>
+        <v>0.4141414165496826</v>
       </c>
       <c r="C14">
-        <v>0.3115384578704834</v>
+        <v>0.2929292917251587</v>
       </c>
       <c r="D14">
-        <v>0.2076923102140427</v>
+        <v>0.2929292917251587</v>
       </c>
       <c r="E14">
-        <v>0.1000000014901161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41333</v>
+        <v>38776</v>
       </c>
       <c r="B15">
-        <v>0.3807692229747772</v>
+        <v>0.4141414165496826</v>
       </c>
       <c r="C15">
-        <v>0.3115384578704834</v>
+        <v>0.2929292917251587</v>
       </c>
       <c r="D15">
-        <v>0.2076923102140427</v>
+        <v>0.2929292917251587</v>
       </c>
       <c r="E15">
-        <v>0.1000000014901161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41362</v>
+        <v>38807</v>
       </c>
       <c r="B16">
-        <v>0.4178571403026581</v>
+        <v>0.4141414165496826</v>
       </c>
       <c r="C16">
-        <v>0.2892857193946838</v>
+        <v>0.2929292917251587</v>
       </c>
       <c r="D16">
-        <v>0.1928571462631226</v>
+        <v>0.2929292917251587</v>
       </c>
       <c r="E16">
-        <v>0.1000000014901161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>41394</v>
+        <v>38835</v>
       </c>
       <c r="B17">
-        <v>0.4178571403026581</v>
+        <v>0.4141414165496826</v>
       </c>
       <c r="C17">
-        <v>0.2892857193946838</v>
+        <v>0.2929292917251587</v>
       </c>
       <c r="D17">
-        <v>0.1928571462631226</v>
+        <v>0.2929292917251587</v>
       </c>
       <c r="E17">
-        <v>0.1000000014901161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>41425</v>
+        <v>38868</v>
       </c>
       <c r="B18">
-        <v>0.3807692229747772</v>
+        <v>0.3763440847396851</v>
       </c>
       <c r="C18">
-        <v>0.3115384578704834</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="D18">
-        <v>0.2076923102140427</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="E18">
-        <v>0.1000000014901161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>41453</v>
+        <v>38898</v>
       </c>
       <c r="B19">
-        <v>0.3899999856948853</v>
+        <v>0.3535353541374207</v>
       </c>
       <c r="C19">
-        <v>0.3300000131130219</v>
+        <v>0.3535353541374207</v>
       </c>
       <c r="D19">
-        <v>0.1800000071525574</v>
+        <v>0.2929292917251587</v>
       </c>
       <c r="E19">
-        <v>0.1000000014901161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>41486</v>
+        <v>38929</v>
       </c>
       <c r="B20">
-        <v>0.4178571403026581</v>
+        <v>0.3763440847396851</v>
       </c>
       <c r="C20">
-        <v>0.2892857193946838</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="D20">
-        <v>0.1928571462631226</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="E20">
-        <v>0.1000000014901161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>41516</v>
+        <v>38960</v>
       </c>
       <c r="B21">
-        <v>0.4178571403026581</v>
+        <v>0.3763440847396851</v>
       </c>
       <c r="C21">
-        <v>0.2892857193946838</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="D21">
-        <v>0.1928571462631226</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="E21">
-        <v>0.1000000014901161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>41547</v>
+        <v>38989</v>
       </c>
       <c r="B22">
-        <v>0.4178571403026581</v>
+        <v>0.341379314661026</v>
       </c>
       <c r="C22">
-        <v>0.2892857193946838</v>
+        <v>0.2793103456497192</v>
       </c>
       <c r="D22">
-        <v>0.1928571462631226</v>
+        <v>0.2793103456497192</v>
       </c>
       <c r="E22">
         <v>0.1000000014901161</v>
@@ -768,16 +768,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>41578</v>
+        <v>39021</v>
       </c>
       <c r="B23">
-        <v>0.4178571403026581</v>
+        <v>0.341379314661026</v>
       </c>
       <c r="C23">
-        <v>0.2892857193946838</v>
+        <v>0.2793103456497192</v>
       </c>
       <c r="D23">
-        <v>0.1928571462631226</v>
+        <v>0.2793103456497192</v>
       </c>
       <c r="E23">
         <v>0.1000000014901161</v>
@@ -785,16 +785,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>41607</v>
+        <v>39051</v>
       </c>
       <c r="B24">
-        <v>0.4178571403026581</v>
+        <v>0.3375000059604645</v>
       </c>
       <c r="C24">
-        <v>0.2892857193946838</v>
+        <v>0.2249999940395355</v>
       </c>
       <c r="D24">
-        <v>0.1928571462631226</v>
+        <v>0.3375000059604645</v>
       </c>
       <c r="E24">
         <v>0.1000000014901161</v>
@@ -802,16 +802,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>41639</v>
+        <v>39080</v>
       </c>
       <c r="B25">
-        <v>0.4178571403026581</v>
+        <v>0.2571428716182709</v>
       </c>
       <c r="C25">
-        <v>0.2892857193946838</v>
+        <v>0.2571428716182709</v>
       </c>
       <c r="D25">
-        <v>0.1928571462631226</v>
+        <v>0.3857142925262451</v>
       </c>
       <c r="E25">
         <v>0.1000000014901161</v>
@@ -819,16 +819,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>41670</v>
+        <v>39113</v>
       </c>
       <c r="B26">
-        <v>0.4178571403026581</v>
+        <v>0.1500000059604645</v>
       </c>
       <c r="C26">
-        <v>0.2892857193946838</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="D26">
-        <v>0.1928571462631226</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="E26">
         <v>0.1000000014901161</v>
@@ -836,16 +836,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>41698</v>
+        <v>39141</v>
       </c>
       <c r="B27">
-        <v>0.4178571403026581</v>
+        <v>0.05624999850988388</v>
       </c>
       <c r="C27">
-        <v>0.2892857193946838</v>
+        <v>0.3375000059604645</v>
       </c>
       <c r="D27">
-        <v>0.1928571462631226</v>
+        <v>0.5062500238418579</v>
       </c>
       <c r="E27">
         <v>0.1000000014901161</v>
@@ -853,16 +853,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>41729</v>
+        <v>39171</v>
       </c>
       <c r="B28">
-        <v>0.4178571403026581</v>
+        <v>0.05624999850988388</v>
       </c>
       <c r="C28">
-        <v>0.2892857193946838</v>
+        <v>0.3375000059604645</v>
       </c>
       <c r="D28">
-        <v>0.1928571462631226</v>
+        <v>0.5062500238418579</v>
       </c>
       <c r="E28">
         <v>0.1000000014901161</v>
@@ -870,16 +870,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>41759</v>
+        <v>39202</v>
       </c>
       <c r="B29">
-        <v>0.4178571403026581</v>
+        <v>0.06923077255487442</v>
       </c>
       <c r="C29">
-        <v>0.2892857193946838</v>
+        <v>0.4153846204280853</v>
       </c>
       <c r="D29">
-        <v>0.1928571462631226</v>
+        <v>0.4153846204280853</v>
       </c>
       <c r="E29">
         <v>0.1000000014901161</v>
@@ -887,16 +887,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>41789</v>
+        <v>39233</v>
       </c>
       <c r="B30">
-        <v>0.4178571403026581</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0.2892857193946838</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="D30">
-        <v>0.1928571462631226</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="E30">
         <v>0.1000000014901161</v>
@@ -904,16 +904,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>41820</v>
+        <v>39262</v>
       </c>
       <c r="B31">
-        <v>0.4679999947547913</v>
+        <v>0.06923077255487442</v>
       </c>
       <c r="C31">
-        <v>0.3240000009536743</v>
+        <v>0.4153846204280853</v>
       </c>
       <c r="D31">
-        <v>0.1080000028014183</v>
+        <v>0.4153846204280853</v>
       </c>
       <c r="E31">
         <v>0.1000000014901161</v>
@@ -921,16 +921,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>41851</v>
+        <v>39294</v>
       </c>
       <c r="B32">
-        <v>0.4304347932338715</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0.2347826063632965</v>
+        <v>0.3600000143051147</v>
       </c>
       <c r="D32">
-        <v>0.2347826063632965</v>
+        <v>0.5400000214576721</v>
       </c>
       <c r="E32">
         <v>0.1000000014901161</v>
@@ -938,16 +938,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>41880</v>
+        <v>39325</v>
       </c>
       <c r="B33">
-        <v>0.4950000047683716</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0.2700000107288361</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="D33">
-        <v>0.135000005364418</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="E33">
         <v>0.1000000014901161</v>
@@ -955,186 +955,186 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>41912</v>
+        <v>39353</v>
       </c>
       <c r="B34">
-        <v>0.3375000059604645</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0.3375000059604645</v>
+        <v>0.0470588244497776</v>
       </c>
       <c r="D34">
-        <v>0.2249999940395355</v>
+        <v>0.7529411911964417</v>
       </c>
       <c r="E34">
-        <v>0.1000000014901161</v>
+        <v>0.2000000029802322</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>41943</v>
+        <v>39386</v>
       </c>
       <c r="B35">
-        <v>0.449999988079071</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0.300000011920929</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0.1500000059604645</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="E35">
-        <v>0.1000000014901161</v>
+        <v>0.2000000029802322</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>41971</v>
+        <v>39416</v>
       </c>
       <c r="B36">
-        <v>0.3600000143051147</v>
+        <v>0.0470588244497776</v>
       </c>
       <c r="C36">
-        <v>0.3600000143051147</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0.1800000071525574</v>
+        <v>0.7529411911964417</v>
       </c>
       <c r="E36">
-        <v>0.1000000014901161</v>
+        <v>0.2000000029802322</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>42004</v>
+        <v>39447</v>
       </c>
       <c r="B37">
-        <v>0.1800000071525574</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0.5400000214576721</v>
+        <v>0.2434782534837723</v>
       </c>
       <c r="D37">
-        <v>0.1800000071525574</v>
+        <v>0.5565217137336731</v>
       </c>
       <c r="E37">
-        <v>0.1000000014901161</v>
+        <v>0.2000000029802322</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>42034</v>
+        <v>39478</v>
       </c>
       <c r="B38">
-        <v>0.2249999940395355</v>
+        <v>0.1435897499322891</v>
       </c>
       <c r="C38">
-        <v>0.449999988079071</v>
+        <v>0.3282051384449005</v>
       </c>
       <c r="D38">
-        <v>0.2249999940395355</v>
+        <v>0.3282051384449005</v>
       </c>
       <c r="E38">
-        <v>0.1000000014901161</v>
+        <v>0.2000000029802322</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>42062</v>
+        <v>39507</v>
       </c>
       <c r="B39">
-        <v>0.09000000357627869</v>
+        <v>0.116666667163372</v>
       </c>
       <c r="C39">
-        <v>0.5400000214576721</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="D39">
-        <v>0.2700000107288361</v>
+        <v>0.4166666567325592</v>
       </c>
       <c r="E39">
-        <v>0.1000000014901161</v>
+        <v>0.2000000029802322</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>42094</v>
+        <v>39538</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="C40">
-        <v>0.6000000238418579</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="D40">
-        <v>0.300000011920929</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="E40">
-        <v>0.1000000014901161</v>
+        <v>0.2000000029802322</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>42124</v>
+        <v>39568</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="C41">
-        <v>0.449999988079071</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="D41">
-        <v>0.449999988079071</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="E41">
-        <v>0.1000000014901161</v>
+        <v>0.2000000029802322</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>42153</v>
+        <v>39598</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.3508771955966949</v>
       </c>
       <c r="C42">
-        <v>0.6000000238418579</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="D42">
-        <v>0.300000011920929</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="E42">
-        <v>0.1000000014901161</v>
+        <v>0.2000000029802322</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>42185</v>
+        <v>39629</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.4289855062961578</v>
       </c>
       <c r="C43">
-        <v>0.6000000238418579</v>
+        <v>0.1855072528123856</v>
       </c>
       <c r="D43">
-        <v>0.300000011920929</v>
+        <v>0.1855072528123856</v>
       </c>
       <c r="E43">
-        <v>0.1000000014901161</v>
+        <v>0.2000000029802322</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>42216</v>
+        <v>39660</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.4679999947547913</v>
       </c>
       <c r="C44">
-        <v>0.6000000238418579</v>
+        <v>0.2160000056028366</v>
       </c>
       <c r="D44">
-        <v>0.300000011920929</v>
+        <v>0.2160000056028366</v>
       </c>
       <c r="E44">
         <v>0.1000000014901161</v>
@@ -1142,16 +1142,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>42247</v>
+        <v>39689</v>
       </c>
       <c r="B45">
-        <v>0.06923077255487442</v>
+        <v>0.4178571403026581</v>
       </c>
       <c r="C45">
-        <v>0.4153846204280853</v>
+        <v>0.2892857193946838</v>
       </c>
       <c r="D45">
-        <v>0.4153846204280853</v>
+        <v>0.1928571462631226</v>
       </c>
       <c r="E45">
         <v>0.1000000014901161</v>
@@ -1159,16 +1159,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>42277</v>
+        <v>39721</v>
       </c>
       <c r="B46">
-        <v>0.1500000059604645</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C46">
-        <v>0.449999988079071</v>
+        <v>0.3300000131130219</v>
       </c>
       <c r="D46">
-        <v>0.300000011920929</v>
+        <v>0.1800000071525574</v>
       </c>
       <c r="E46">
         <v>0.1000000014901161</v>
@@ -1176,101 +1176,101 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>42307</v>
+        <v>39752</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.2989898920059204</v>
       </c>
       <c r="C47">
-        <v>0.6000000238418579</v>
+        <v>0.2989898920059204</v>
       </c>
       <c r="D47">
-        <v>0.300000011920929</v>
+        <v>0.2020201981067657</v>
       </c>
       <c r="E47">
-        <v>0.1000000014901161</v>
+        <v>0.2000000029802322</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>42338</v>
+        <v>39780</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.2819047570228577</v>
       </c>
       <c r="C48">
-        <v>0.6000000238418579</v>
+        <v>0.2819047570228577</v>
       </c>
       <c r="D48">
-        <v>0.300000011920929</v>
+        <v>0.2361904829740524</v>
       </c>
       <c r="E48">
-        <v>0.1000000014901161</v>
+        <v>0.2000000029802322</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>42369</v>
+        <v>39813</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.3794871866703033</v>
       </c>
       <c r="C49">
-        <v>0.6451612710952759</v>
+        <v>0.2564102709293365</v>
       </c>
       <c r="D49">
-        <v>0.3548386991024017</v>
+        <v>0.1641025692224503</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.2000000029802322</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>42398</v>
+        <v>39843</v>
       </c>
       <c r="B50">
-        <v>0.2156862765550613</v>
+        <v>0.2989898920059204</v>
       </c>
       <c r="C50">
-        <v>0.3921568691730499</v>
+        <v>0.2505050599575043</v>
       </c>
       <c r="D50">
-        <v>0.3921568691730499</v>
+        <v>0.2505050599575043</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.2000000029802322</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>42429</v>
+        <v>39871</v>
       </c>
       <c r="B51">
-        <v>0.1833333373069763</v>
+        <v>0.2989898920059204</v>
       </c>
       <c r="C51">
-        <v>0.4833333194255829</v>
+        <v>0.2505050599575043</v>
       </c>
       <c r="D51">
-        <v>0.3333333432674408</v>
+        <v>0.2505050599575043</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.2000000029802322</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>42460</v>
+        <v>39903</v>
       </c>
       <c r="B52">
-        <v>0.09000000357627869</v>
+        <v>0.341379314661026</v>
       </c>
       <c r="C52">
-        <v>0.5400000214576721</v>
+        <v>0.2793103456497192</v>
       </c>
       <c r="D52">
-        <v>0.2700000107288361</v>
+        <v>0.2793103456497192</v>
       </c>
       <c r="E52">
         <v>0.1000000014901161</v>
@@ -1278,16 +1278,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>42489</v>
+        <v>39933</v>
       </c>
       <c r="B53">
-        <v>0.09000000357627869</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="C53">
-        <v>0.5400000214576721</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="D53">
-        <v>0.2700000107288361</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="E53">
         <v>0.1000000014901161</v>
@@ -1295,16 +1295,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>42521</v>
+        <v>39962</v>
       </c>
       <c r="B54">
-        <v>0.09000000357627869</v>
+        <v>0.3600000143051147</v>
       </c>
       <c r="C54">
-        <v>0.5400000214576721</v>
+        <v>0.1800000071525574</v>
       </c>
       <c r="D54">
-        <v>0.2700000107288361</v>
+        <v>0.3600000143051147</v>
       </c>
       <c r="E54">
         <v>0.1000000014901161</v>
@@ -1312,16 +1312,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>42551</v>
+        <v>39994</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
         <v>0.6000000238418579</v>
-      </c>
-      <c r="D55">
-        <v>0.300000011920929</v>
       </c>
       <c r="E55">
         <v>0.1000000014901161</v>
@@ -1329,16 +1329,16 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>42580</v>
+        <v>40025</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>0.2249999940395355</v>
       </c>
       <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
         <v>0.675000011920929</v>
-      </c>
-      <c r="D56">
-        <v>0.2249999940395355</v>
       </c>
       <c r="E56">
         <v>0.1000000014901161</v>
@@ -1346,16 +1346,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>42613</v>
+        <v>40056</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.7714285850524902</v>
       </c>
       <c r="C57">
-        <v>0.675000011920929</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0.2249999940395355</v>
+        <v>0.1285714358091354</v>
       </c>
       <c r="E57">
         <v>0.1000000014901161</v>
@@ -1363,16 +1363,16 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>42643</v>
+        <v>40086</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="C58">
-        <v>0.449999988079071</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0.449999988079071</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0.1000000014901161</v>
@@ -1380,16 +1380,16 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>42674</v>
+        <v>40116</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="C59">
-        <v>0.2249999940395355</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0.675000011920929</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0.1000000014901161</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>42704</v>
+        <v>40147</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="C60">
-        <v>0.675000011920929</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>0.2249999940395355</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>0.1000000014901161</v>
@@ -1414,169 +1414,169 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>42734</v>
+        <v>40178</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>0.2249999940395355</v>
       </c>
       <c r="C61">
-        <v>0.5</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="D61">
-        <v>0.5</v>
+        <v>0.2249999940395355</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>42766</v>
+        <v>40207</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="C62">
-        <v>0.5</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="D62">
-        <v>0.5</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>42794</v>
+        <v>40235</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="C63">
-        <v>0.5</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="D63">
-        <v>0.5</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>42825</v>
+        <v>40268</v>
       </c>
       <c r="B64">
-        <v>0.2380952388048172</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="C64">
-        <v>0.2380952388048172</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="D64">
-        <v>0.523809552192688</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>42853</v>
+        <v>40298</v>
       </c>
       <c r="B65">
-        <v>0.4074074029922485</v>
+        <v>0.4304347932338715</v>
       </c>
       <c r="C65">
-        <v>0.1851851791143417</v>
+        <v>0.2347826063632965</v>
       </c>
       <c r="D65">
-        <v>0.4074074029922485</v>
+        <v>0.2347826063632965</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>42886</v>
+        <v>40329</v>
       </c>
       <c r="B66">
-        <v>0.4074074029922485</v>
+        <v>0.4679999947547913</v>
       </c>
       <c r="C66">
-        <v>0.1851851791143417</v>
+        <v>0.2160000056028366</v>
       </c>
       <c r="D66">
-        <v>0.4074074029922485</v>
+        <v>0.2160000056028366</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>42916</v>
+        <v>40359</v>
       </c>
       <c r="B67">
-        <v>0.3333333432674408</v>
+        <v>0.3774193525314331</v>
       </c>
       <c r="C67">
-        <v>0.3333333432674408</v>
+        <v>0.2612903118133545</v>
       </c>
       <c r="D67">
-        <v>0.3333333432674408</v>
+        <v>0.2612903118133545</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>42947</v>
+        <v>40389</v>
       </c>
       <c r="B68">
-        <v>0.4074074029922485</v>
+        <v>0.3774193525314331</v>
       </c>
       <c r="C68">
-        <v>0.1851851791143417</v>
+        <v>0.2612903118133545</v>
       </c>
       <c r="D68">
-        <v>0.4074074029922485</v>
+        <v>0.2612903118133545</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>42978</v>
+        <v>40421</v>
       </c>
       <c r="B69">
-        <v>0.4074074029922485</v>
+        <v>0.3774193525314331</v>
       </c>
       <c r="C69">
-        <v>0.1851851791143417</v>
+        <v>0.2612903118133545</v>
       </c>
       <c r="D69">
-        <v>0.4074074029922485</v>
+        <v>0.2612903118133545</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>43007</v>
+        <v>40451</v>
       </c>
       <c r="B70">
-        <v>0.300000011920929</v>
+        <v>0.4178571403026581</v>
       </c>
       <c r="C70">
-        <v>0.300000011920929</v>
+        <v>0.1928571462631226</v>
       </c>
       <c r="D70">
-        <v>0.300000011920929</v>
+        <v>0.2892857193946838</v>
       </c>
       <c r="E70">
         <v>0.1000000014901161</v>
@@ -1584,16 +1584,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>43039</v>
+        <v>40480</v>
       </c>
       <c r="B71">
-        <v>0.300000011920929</v>
+        <v>0.4679999947547913</v>
       </c>
       <c r="C71">
-        <v>0.300000011920929</v>
+        <v>0.2160000056028366</v>
       </c>
       <c r="D71">
-        <v>0.300000011920929</v>
+        <v>0.2160000056028366</v>
       </c>
       <c r="E71">
         <v>0.1000000014901161</v>
@@ -1601,16 +1601,16 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>43069</v>
+        <v>40512</v>
       </c>
       <c r="B72">
-        <v>0.449999988079071</v>
+        <v>0.4178571403026581</v>
       </c>
       <c r="C72">
-        <v>0.2249999940395355</v>
+        <v>0.1928571462631226</v>
       </c>
       <c r="D72">
-        <v>0.2249999940395355</v>
+        <v>0.2892857193946838</v>
       </c>
       <c r="E72">
         <v>0.1000000014901161</v>
@@ -1618,271 +1618,271 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>43098</v>
+        <v>40543</v>
       </c>
       <c r="B73">
-        <v>0.3921568691730499</v>
+        <v>0.4178571403026581</v>
       </c>
       <c r="C73">
-        <v>0.3921568691730499</v>
+        <v>0.2892857193946838</v>
       </c>
       <c r="D73">
-        <v>0.2156862765550613</v>
+        <v>0.1928571462631226</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>43131</v>
+        <v>40574</v>
       </c>
       <c r="B74">
-        <v>0.4074074029922485</v>
+        <v>0.4178571403026581</v>
       </c>
       <c r="C74">
-        <v>0.4074074029922485</v>
+        <v>0.2892857193946838</v>
       </c>
       <c r="D74">
-        <v>0.1851851791143417</v>
+        <v>0.1928571462631226</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>43159</v>
+        <v>40602</v>
       </c>
       <c r="B75">
-        <v>0.4761904776096344</v>
+        <v>0.4178571403026581</v>
       </c>
       <c r="C75">
-        <v>0.261904776096344</v>
+        <v>0.2892857193946838</v>
       </c>
       <c r="D75">
-        <v>0.261904776096344</v>
+        <v>0.1928571462631226</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>43189</v>
+        <v>40633</v>
       </c>
       <c r="B76">
-        <v>0.3333333432674408</v>
+        <v>0.4178571403026581</v>
       </c>
       <c r="C76">
-        <v>0.3333333432674408</v>
+        <v>0.2892857193946838</v>
       </c>
       <c r="D76">
-        <v>0.3333333432674408</v>
+        <v>0.1928571462631226</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>43220</v>
+        <v>40662</v>
       </c>
       <c r="B77">
-        <v>0.3333333432674408</v>
+        <v>0.4178571403026581</v>
       </c>
       <c r="C77">
-        <v>0.3333333432674408</v>
+        <v>0.2892857193946838</v>
       </c>
       <c r="D77">
-        <v>0.3333333432674408</v>
+        <v>0.1928571462631226</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>43251</v>
+        <v>40694</v>
       </c>
       <c r="B78">
-        <v>0.3333333432674408</v>
+        <v>0.4178571403026581</v>
       </c>
       <c r="C78">
-        <v>0.3333333432674408</v>
+        <v>0.2892857193946838</v>
       </c>
       <c r="D78">
-        <v>0.3333333432674408</v>
+        <v>0.1928571462631226</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>43280</v>
+        <v>40724</v>
       </c>
       <c r="B79">
-        <v>0.4202898442745209</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C79">
-        <v>0.2898550629615784</v>
+        <v>0.3300000131130219</v>
       </c>
       <c r="D79">
-        <v>0.2898550629615784</v>
+        <v>0.1800000071525574</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>43312</v>
+        <v>40753</v>
       </c>
       <c r="B80">
-        <v>0.4202898442745209</v>
+        <v>0.3545454442501068</v>
       </c>
       <c r="C80">
-        <v>0.2898550629615784</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="D80">
-        <v>0.2898550629615784</v>
+        <v>0.2454545497894287</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>43343</v>
+        <v>40786</v>
       </c>
       <c r="B81">
-        <v>0.4666666686534882</v>
+        <v>0.334285706281662</v>
       </c>
       <c r="C81">
-        <v>0.2666666805744171</v>
+        <v>0.334285706281662</v>
       </c>
       <c r="D81">
-        <v>0.2666666805744171</v>
+        <v>0.2314285784959793</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>43371</v>
+        <v>40816</v>
       </c>
       <c r="B82">
-        <v>0.4202898442745209</v>
+        <v>0.3162162303924561</v>
       </c>
       <c r="C82">
-        <v>0.2898550629615784</v>
+        <v>0.3162162303924561</v>
       </c>
       <c r="D82">
-        <v>0.2898550629615784</v>
+        <v>0.2675675749778748</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>43404</v>
+        <v>40847</v>
       </c>
       <c r="B83">
-        <v>0.4166666567325592</v>
+        <v>0.334285706281662</v>
       </c>
       <c r="C83">
-        <v>0.3452380895614624</v>
+        <v>0.334285706281662</v>
       </c>
       <c r="D83">
-        <v>0.2380952388048172</v>
+        <v>0.2314285784959793</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>43434</v>
+        <v>40877</v>
       </c>
       <c r="B84">
-        <v>0.4166666567325592</v>
+        <v>0.334285706281662</v>
       </c>
       <c r="C84">
-        <v>0.3452380895614624</v>
+        <v>0.334285706281662</v>
       </c>
       <c r="D84">
-        <v>0.2380952388048172</v>
+        <v>0.2314285784959793</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>43465</v>
+        <v>40907</v>
       </c>
       <c r="B85">
-        <v>0.3763440847396851</v>
+        <v>0.334285706281662</v>
       </c>
       <c r="C85">
-        <v>0.3118279576301575</v>
+        <v>0.334285706281662</v>
       </c>
       <c r="D85">
-        <v>0.3118279576301575</v>
+        <v>0.2314285784959793</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>43496</v>
+        <v>40939</v>
       </c>
       <c r="B86">
-        <v>0.4666666686534882</v>
+        <v>0.3545454442501068</v>
       </c>
       <c r="C86">
-        <v>0.2666666805744171</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="D86">
-        <v>0.2666666805744171</v>
+        <v>0.2454545497894287</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>43524</v>
+        <v>40968</v>
       </c>
       <c r="B87">
-        <v>0.4202898442745209</v>
+        <v>0.3545454442501068</v>
       </c>
       <c r="C87">
-        <v>0.2898550629615784</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="D87">
-        <v>0.2898550629615784</v>
+        <v>0.2454545497894287</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>43553</v>
+        <v>40998</v>
       </c>
       <c r="B88">
-        <v>0.300000011920929</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="C88">
-        <v>0.300000011920929</v>
+        <v>0.3300000131130219</v>
       </c>
       <c r="D88">
-        <v>0.300000011920929</v>
+        <v>0.1800000071525574</v>
       </c>
       <c r="E88">
         <v>0.1000000014901161</v>
@@ -1890,16 +1890,16 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>43585</v>
+        <v>41029</v>
       </c>
       <c r="B89">
-        <v>0.300000011920929</v>
+        <v>0.3545454442501068</v>
       </c>
       <c r="C89">
         <v>0.300000011920929</v>
       </c>
       <c r="D89">
-        <v>0.300000011920929</v>
+        <v>0.2454545497894287</v>
       </c>
       <c r="E89">
         <v>0.1000000014901161</v>
@@ -1907,16 +1907,16 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>43616</v>
+        <v>41060</v>
       </c>
       <c r="B90">
-        <v>0.3857142925262451</v>
+        <v>0.334285706281662</v>
       </c>
       <c r="C90">
-        <v>0.2571428716182709</v>
+        <v>0.334285706281662</v>
       </c>
       <c r="D90">
-        <v>0.2571428716182709</v>
+        <v>0.2314285784959793</v>
       </c>
       <c r="E90">
         <v>0.1000000014901161</v>
@@ -1924,16 +1924,16 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>43644</v>
+        <v>41089</v>
       </c>
       <c r="B91">
-        <v>0.300000011920929</v>
+        <v>0.3545454442501068</v>
       </c>
       <c r="C91">
         <v>0.300000011920929</v>
       </c>
       <c r="D91">
-        <v>0.300000011920929</v>
+        <v>0.2454545497894287</v>
       </c>
       <c r="E91">
         <v>0.1000000014901161</v>
@@ -1941,52 +1941,1497 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>43677</v>
+        <v>41121</v>
       </c>
       <c r="B92">
-        <v>0.3508771955966949</v>
+        <v>0.3545454442501068</v>
       </c>
       <c r="C92">
-        <v>0.224561408162117</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="D92">
-        <v>0.224561408162117</v>
+        <v>0.2454545497894287</v>
       </c>
       <c r="E92">
-        <v>0.2000000029802322</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>43707</v>
+        <v>41152</v>
       </c>
       <c r="B93">
-        <v>0.3030303120613098</v>
+        <v>0.3545454442501068</v>
       </c>
       <c r="C93">
-        <v>0.3030303120613098</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="D93">
-        <v>0.1939393877983093</v>
+        <v>0.2454545497894287</v>
       </c>
       <c r="E93">
-        <v>0.2000000029802322</v>
+        <v>0.1000000014901161</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
+        <v>41180</v>
+      </c>
+      <c r="B94">
+        <v>0.4178571403026581</v>
+      </c>
+      <c r="C94">
+        <v>0.2892857193946838</v>
+      </c>
+      <c r="D94">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E94">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2">
+        <v>41213</v>
+      </c>
+      <c r="B95">
+        <v>0.4178571403026581</v>
+      </c>
+      <c r="C95">
+        <v>0.2892857193946838</v>
+      </c>
+      <c r="D95">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E95">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2">
+        <v>41243</v>
+      </c>
+      <c r="B96">
+        <v>0.4178571403026581</v>
+      </c>
+      <c r="C96">
+        <v>0.2892857193946838</v>
+      </c>
+      <c r="D96">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E96">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2">
+        <v>41274</v>
+      </c>
+      <c r="B97">
+        <v>0.3774193525314331</v>
+      </c>
+      <c r="C97">
+        <v>0.2612903118133545</v>
+      </c>
+      <c r="D97">
+        <v>0.2612903118133545</v>
+      </c>
+      <c r="E97">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2">
+        <v>41305</v>
+      </c>
+      <c r="B98">
+        <v>0.3807692229747772</v>
+      </c>
+      <c r="C98">
+        <v>0.3115384578704834</v>
+      </c>
+      <c r="D98">
+        <v>0.2076923102140427</v>
+      </c>
+      <c r="E98">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="2">
+        <v>41333</v>
+      </c>
+      <c r="B99">
+        <v>0.3807692229747772</v>
+      </c>
+      <c r="C99">
+        <v>0.3115384578704834</v>
+      </c>
+      <c r="D99">
+        <v>0.2076923102140427</v>
+      </c>
+      <c r="E99">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="2">
+        <v>41362</v>
+      </c>
+      <c r="B100">
+        <v>0.4178571403026581</v>
+      </c>
+      <c r="C100">
+        <v>0.2892857193946838</v>
+      </c>
+      <c r="D100">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E100">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="2">
+        <v>41394</v>
+      </c>
+      <c r="B101">
+        <v>0.4178571403026581</v>
+      </c>
+      <c r="C101">
+        <v>0.2892857193946838</v>
+      </c>
+      <c r="D101">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E101">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="2">
+        <v>41425</v>
+      </c>
+      <c r="B102">
+        <v>0.3807692229747772</v>
+      </c>
+      <c r="C102">
+        <v>0.3115384578704834</v>
+      </c>
+      <c r="D102">
+        <v>0.2076923102140427</v>
+      </c>
+      <c r="E102">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="2">
+        <v>41453</v>
+      </c>
+      <c r="B103">
+        <v>0.3899999856948853</v>
+      </c>
+      <c r="C103">
+        <v>0.3300000131130219</v>
+      </c>
+      <c r="D103">
+        <v>0.1800000071525574</v>
+      </c>
+      <c r="E103">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2">
+        <v>41486</v>
+      </c>
+      <c r="B104">
+        <v>0.4178571403026581</v>
+      </c>
+      <c r="C104">
+        <v>0.2892857193946838</v>
+      </c>
+      <c r="D104">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E104">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="2">
+        <v>41516</v>
+      </c>
+      <c r="B105">
+        <v>0.4178571403026581</v>
+      </c>
+      <c r="C105">
+        <v>0.2892857193946838</v>
+      </c>
+      <c r="D105">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E105">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="2">
+        <v>41547</v>
+      </c>
+      <c r="B106">
+        <v>0.4178571403026581</v>
+      </c>
+      <c r="C106">
+        <v>0.2892857193946838</v>
+      </c>
+      <c r="D106">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E106">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="2">
+        <v>41578</v>
+      </c>
+      <c r="B107">
+        <v>0.4178571403026581</v>
+      </c>
+      <c r="C107">
+        <v>0.2892857193946838</v>
+      </c>
+      <c r="D107">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E107">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="2">
+        <v>41607</v>
+      </c>
+      <c r="B108">
+        <v>0.4178571403026581</v>
+      </c>
+      <c r="C108">
+        <v>0.2892857193946838</v>
+      </c>
+      <c r="D108">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E108">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="2">
+        <v>41639</v>
+      </c>
+      <c r="B109">
+        <v>0.4178571403026581</v>
+      </c>
+      <c r="C109">
+        <v>0.2892857193946838</v>
+      </c>
+      <c r="D109">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E109">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="2">
+        <v>41670</v>
+      </c>
+      <c r="B110">
+        <v>0.4178571403026581</v>
+      </c>
+      <c r="C110">
+        <v>0.2892857193946838</v>
+      </c>
+      <c r="D110">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E110">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="2">
+        <v>41698</v>
+      </c>
+      <c r="B111">
+        <v>0.4178571403026581</v>
+      </c>
+      <c r="C111">
+        <v>0.2892857193946838</v>
+      </c>
+      <c r="D111">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E111">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="2">
+        <v>41729</v>
+      </c>
+      <c r="B112">
+        <v>0.4178571403026581</v>
+      </c>
+      <c r="C112">
+        <v>0.2892857193946838</v>
+      </c>
+      <c r="D112">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E112">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="2">
+        <v>41759</v>
+      </c>
+      <c r="B113">
+        <v>0.4178571403026581</v>
+      </c>
+      <c r="C113">
+        <v>0.2892857193946838</v>
+      </c>
+      <c r="D113">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E113">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="2">
+        <v>41789</v>
+      </c>
+      <c r="B114">
+        <v>0.4178571403026581</v>
+      </c>
+      <c r="C114">
+        <v>0.2892857193946838</v>
+      </c>
+      <c r="D114">
+        <v>0.1928571462631226</v>
+      </c>
+      <c r="E114">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="2">
+        <v>41820</v>
+      </c>
+      <c r="B115">
+        <v>0.4679999947547913</v>
+      </c>
+      <c r="C115">
+        <v>0.3240000009536743</v>
+      </c>
+      <c r="D115">
+        <v>0.1080000028014183</v>
+      </c>
+      <c r="E115">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="2">
+        <v>41851</v>
+      </c>
+      <c r="B116">
+        <v>0.4304347932338715</v>
+      </c>
+      <c r="C116">
+        <v>0.2347826063632965</v>
+      </c>
+      <c r="D116">
+        <v>0.2347826063632965</v>
+      </c>
+      <c r="E116">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="2">
+        <v>41880</v>
+      </c>
+      <c r="B117">
+        <v>0.4950000047683716</v>
+      </c>
+      <c r="C117">
+        <v>0.2700000107288361</v>
+      </c>
+      <c r="D117">
+        <v>0.135000005364418</v>
+      </c>
+      <c r="E117">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="2">
+        <v>41912</v>
+      </c>
+      <c r="B118">
+        <v>0.3375000059604645</v>
+      </c>
+      <c r="C118">
+        <v>0.3375000059604645</v>
+      </c>
+      <c r="D118">
+        <v>0.2249999940395355</v>
+      </c>
+      <c r="E118">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="2">
+        <v>41943</v>
+      </c>
+      <c r="B119">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C119">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="D119">
+        <v>0.1500000059604645</v>
+      </c>
+      <c r="E119">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="2">
+        <v>41971</v>
+      </c>
+      <c r="B120">
+        <v>0.3600000143051147</v>
+      </c>
+      <c r="C120">
+        <v>0.3600000143051147</v>
+      </c>
+      <c r="D120">
+        <v>0.1800000071525574</v>
+      </c>
+      <c r="E120">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="2">
+        <v>42004</v>
+      </c>
+      <c r="B121">
+        <v>0.1800000071525574</v>
+      </c>
+      <c r="C121">
+        <v>0.5400000214576721</v>
+      </c>
+      <c r="D121">
+        <v>0.1800000071525574</v>
+      </c>
+      <c r="E121">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="2">
+        <v>42034</v>
+      </c>
+      <c r="B122">
+        <v>0.2249999940395355</v>
+      </c>
+      <c r="C122">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="D122">
+        <v>0.2249999940395355</v>
+      </c>
+      <c r="E122">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="2">
+        <v>42062</v>
+      </c>
+      <c r="B123">
+        <v>0.09000000357627869</v>
+      </c>
+      <c r="C123">
+        <v>0.5400000214576721</v>
+      </c>
+      <c r="D123">
+        <v>0.2700000107288361</v>
+      </c>
+      <c r="E123">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2">
+        <v>42094</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="D124">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="E124">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2">
+        <v>42124</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="D125">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="E125">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2">
+        <v>42153</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="D126">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="E126">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2">
+        <v>42185</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="D127">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="E127">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2">
+        <v>42216</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="D128">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="E128">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2">
+        <v>42247</v>
+      </c>
+      <c r="B129">
+        <v>0.06923077255487442</v>
+      </c>
+      <c r="C129">
+        <v>0.4153846204280853</v>
+      </c>
+      <c r="D129">
+        <v>0.4153846204280853</v>
+      </c>
+      <c r="E129">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2">
+        <v>42277</v>
+      </c>
+      <c r="B130">
+        <v>0.1500000059604645</v>
+      </c>
+      <c r="C130">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="D130">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="E130">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
+        <v>42307</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="D131">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="E131">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <v>42338</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="D132">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="E132">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <v>42369</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0.6451612710952759</v>
+      </c>
+      <c r="D133">
+        <v>0.3548386991024017</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>42398</v>
+      </c>
+      <c r="B134">
+        <v>0.2156862765550613</v>
+      </c>
+      <c r="C134">
+        <v>0.3921568691730499</v>
+      </c>
+      <c r="D134">
+        <v>0.3921568691730499</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>42429</v>
+      </c>
+      <c r="B135">
+        <v>0.1833333373069763</v>
+      </c>
+      <c r="C135">
+        <v>0.4833333194255829</v>
+      </c>
+      <c r="D135">
+        <v>0.3333333432674408</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>42460</v>
+      </c>
+      <c r="B136">
+        <v>0.09000000357627869</v>
+      </c>
+      <c r="C136">
+        <v>0.5400000214576721</v>
+      </c>
+      <c r="D136">
+        <v>0.2700000107288361</v>
+      </c>
+      <c r="E136">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>42489</v>
+      </c>
+      <c r="B137">
+        <v>0.09000000357627869</v>
+      </c>
+      <c r="C137">
+        <v>0.5400000214576721</v>
+      </c>
+      <c r="D137">
+        <v>0.2700000107288361</v>
+      </c>
+      <c r="E137">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>42521</v>
+      </c>
+      <c r="B138">
+        <v>0.09000000357627869</v>
+      </c>
+      <c r="C138">
+        <v>0.5400000214576721</v>
+      </c>
+      <c r="D138">
+        <v>0.2700000107288361</v>
+      </c>
+      <c r="E138">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>42551</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="D139">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="E139">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>42580</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0.675000011920929</v>
+      </c>
+      <c r="D140">
+        <v>0.2249999940395355</v>
+      </c>
+      <c r="E140">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <v>42613</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0.675000011920929</v>
+      </c>
+      <c r="D141">
+        <v>0.2249999940395355</v>
+      </c>
+      <c r="E141">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>42643</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="D142">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="E142">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <v>42674</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0.2249999940395355</v>
+      </c>
+      <c r="D143">
+        <v>0.675000011920929</v>
+      </c>
+      <c r="E143">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>42704</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0.675000011920929</v>
+      </c>
+      <c r="D144">
+        <v>0.2249999940395355</v>
+      </c>
+      <c r="E144">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>42734</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0.5</v>
+      </c>
+      <c r="D145">
+        <v>0.5</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>42766</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0.5</v>
+      </c>
+      <c r="D146">
+        <v>0.5</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>42794</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0.5</v>
+      </c>
+      <c r="D147">
+        <v>0.5</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>42825</v>
+      </c>
+      <c r="B148">
+        <v>0.2380952388048172</v>
+      </c>
+      <c r="C148">
+        <v>0.2380952388048172</v>
+      </c>
+      <c r="D148">
+        <v>0.523809552192688</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>42853</v>
+      </c>
+      <c r="B149">
+        <v>0.4074074029922485</v>
+      </c>
+      <c r="C149">
+        <v>0.1851851791143417</v>
+      </c>
+      <c r="D149">
+        <v>0.4074074029922485</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>42886</v>
+      </c>
+      <c r="B150">
+        <v>0.4074074029922485</v>
+      </c>
+      <c r="C150">
+        <v>0.1851851791143417</v>
+      </c>
+      <c r="D150">
+        <v>0.4074074029922485</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B151">
+        <v>0.3333333432674408</v>
+      </c>
+      <c r="C151">
+        <v>0.3333333432674408</v>
+      </c>
+      <c r="D151">
+        <v>0.3333333432674408</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2">
+        <v>42947</v>
+      </c>
+      <c r="B152">
+        <v>0.4074074029922485</v>
+      </c>
+      <c r="C152">
+        <v>0.1851851791143417</v>
+      </c>
+      <c r="D152">
+        <v>0.4074074029922485</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2">
+        <v>42978</v>
+      </c>
+      <c r="B153">
+        <v>0.4074074029922485</v>
+      </c>
+      <c r="C153">
+        <v>0.1851851791143417</v>
+      </c>
+      <c r="D153">
+        <v>0.4074074029922485</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2">
+        <v>43007</v>
+      </c>
+      <c r="B154">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="C154">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="D154">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="E154">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2">
+        <v>43039</v>
+      </c>
+      <c r="B155">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="C155">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="D155">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="E155">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2">
+        <v>43069</v>
+      </c>
+      <c r="B156">
+        <v>0.5400000214576721</v>
+      </c>
+      <c r="C156">
+        <v>0.2700000107288361</v>
+      </c>
+      <c r="D156">
+        <v>0.09000000357627869</v>
+      </c>
+      <c r="E156">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2">
+        <v>43098</v>
+      </c>
+      <c r="B157">
+        <v>0.3921568691730499</v>
+      </c>
+      <c r="C157">
+        <v>0.3921568691730499</v>
+      </c>
+      <c r="D157">
+        <v>0.2156862765550613</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B158">
+        <v>0.4074074029922485</v>
+      </c>
+      <c r="C158">
+        <v>0.4074074029922485</v>
+      </c>
+      <c r="D158">
+        <v>0.1851851791143417</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B159">
+        <v>0.4761904776096344</v>
+      </c>
+      <c r="C159">
+        <v>0.261904776096344</v>
+      </c>
+      <c r="D159">
+        <v>0.261904776096344</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B160">
+        <v>0.3333333432674408</v>
+      </c>
+      <c r="C160">
+        <v>0.3333333432674408</v>
+      </c>
+      <c r="D160">
+        <v>0.3333333432674408</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
+        <v>43220</v>
+      </c>
+      <c r="B161">
+        <v>0.3333333432674408</v>
+      </c>
+      <c r="C161">
+        <v>0.3333333432674408</v>
+      </c>
+      <c r="D161">
+        <v>0.3333333432674408</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
+        <v>43251</v>
+      </c>
+      <c r="B162">
+        <v>0.3333333432674408</v>
+      </c>
+      <c r="C162">
+        <v>0.3333333432674408</v>
+      </c>
+      <c r="D162">
+        <v>0.3333333432674408</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>43280</v>
+      </c>
+      <c r="B163">
+        <v>0.4202898442745209</v>
+      </c>
+      <c r="C163">
+        <v>0.2898550629615784</v>
+      </c>
+      <c r="D163">
+        <v>0.2898550629615784</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
+        <v>43312</v>
+      </c>
+      <c r="B164">
+        <v>0.4202898442745209</v>
+      </c>
+      <c r="C164">
+        <v>0.2898550629615784</v>
+      </c>
+      <c r="D164">
+        <v>0.2898550629615784</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2">
+        <v>43343</v>
+      </c>
+      <c r="B165">
+        <v>0.4666666686534882</v>
+      </c>
+      <c r="C165">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="D165">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2">
+        <v>43371</v>
+      </c>
+      <c r="B166">
+        <v>0.4202898442745209</v>
+      </c>
+      <c r="C166">
+        <v>0.2898550629615784</v>
+      </c>
+      <c r="D166">
+        <v>0.2898550629615784</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2">
+        <v>43404</v>
+      </c>
+      <c r="B167">
+        <v>0.4166666567325592</v>
+      </c>
+      <c r="C167">
+        <v>0.3452380895614624</v>
+      </c>
+      <c r="D167">
+        <v>0.2380952388048172</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2">
+        <v>43434</v>
+      </c>
+      <c r="B168">
+        <v>0.4166666567325592</v>
+      </c>
+      <c r="C168">
+        <v>0.3452380895614624</v>
+      </c>
+      <c r="D168">
+        <v>0.2380952388048172</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2">
+        <v>43465</v>
+      </c>
+      <c r="B169">
+        <v>0.3763440847396851</v>
+      </c>
+      <c r="C169">
+        <v>0.3118279576301575</v>
+      </c>
+      <c r="D169">
+        <v>0.3118279576301575</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2">
+        <v>43496</v>
+      </c>
+      <c r="B170">
+        <v>0.4666666686534882</v>
+      </c>
+      <c r="C170">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="D170">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2">
+        <v>43524</v>
+      </c>
+      <c r="B171">
+        <v>0.4202898442745209</v>
+      </c>
+      <c r="C171">
+        <v>0.2898550629615784</v>
+      </c>
+      <c r="D171">
+        <v>0.2898550629615784</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2">
+        <v>43553</v>
+      </c>
+      <c r="B172">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="C172">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="D172">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="E172">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B173">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="C173">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="D173">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="E173">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2">
+        <v>43616</v>
+      </c>
+      <c r="B174">
+        <v>0.3857142925262451</v>
+      </c>
+      <c r="C174">
+        <v>0.2571428716182709</v>
+      </c>
+      <c r="D174">
+        <v>0.2571428716182709</v>
+      </c>
+      <c r="E174">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2">
+        <v>43644</v>
+      </c>
+      <c r="B175">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="C175">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="D175">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="E175">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2">
+        <v>43677</v>
+      </c>
+      <c r="B176">
+        <v>0.3508771955966949</v>
+      </c>
+      <c r="C176">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="D176">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="E176">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2">
+        <v>43707</v>
+      </c>
+      <c r="B177">
+        <v>0.3030303120613098</v>
+      </c>
+      <c r="C177">
+        <v>0.3030303120613098</v>
+      </c>
+      <c r="D177">
+        <v>0.1939393877983093</v>
+      </c>
+      <c r="E177">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2">
         <v>43738</v>
       </c>
-      <c r="B94">
+      <c r="B178">
         <v>0.3030303120613098</v>
       </c>
-      <c r="C94">
+      <c r="C178">
         <v>0.3030303120613098</v>
       </c>
-      <c r="D94">
+      <c r="D178">
         <v>0.1939393877983093</v>
       </c>
-      <c r="E94">
+      <c r="E178">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2">
+        <v>43769</v>
+      </c>
+      <c r="B179">
+        <v>0.3508771955966949</v>
+      </c>
+      <c r="C179">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="D179">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="E179">
         <v>0.2000000029802322</v>
       </c>
     </row>

--- a/strategy/全球购策略/data/weight.xlsx
+++ b/strategy/全球购策略/data/weight.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2590,13 +2590,13 @@
         <v>42277</v>
       </c>
       <c r="B130">
-        <v>0.1500000059604645</v>
+        <v>0.1800000071525574</v>
       </c>
       <c r="C130">
-        <v>0.449999988079071</v>
+        <v>0.3600000143051147</v>
       </c>
       <c r="D130">
-        <v>0.300000011920929</v>
+        <v>0.3600000143051147</v>
       </c>
       <c r="E130">
         <v>0.1000000014901161</v>
@@ -3049,13 +3049,13 @@
         <v>43098</v>
       </c>
       <c r="B157">
-        <v>0.3921568691730499</v>
+        <v>0.4761904776096344</v>
       </c>
       <c r="C157">
-        <v>0.3921568691730499</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="D157">
-        <v>0.2156862765550613</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -3066,13 +3066,13 @@
         <v>43131</v>
       </c>
       <c r="B158">
-        <v>0.4074074029922485</v>
+        <v>0.523809552192688</v>
       </c>
       <c r="C158">
-        <v>0.4074074029922485</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D158">
-        <v>0.1851851791143417</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -3083,13 +3083,13 @@
         <v>43159</v>
       </c>
       <c r="B159">
-        <v>0.4761904776096344</v>
+        <v>0.5555555820465088</v>
       </c>
       <c r="C159">
-        <v>0.261904776096344</v>
+        <v>0.1388888955116272</v>
       </c>
       <c r="D159">
-        <v>0.261904776096344</v>
+        <v>0.3055555522441864</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -3100,13 +3100,13 @@
         <v>43189</v>
       </c>
       <c r="B160">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="C160">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="D160">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -3117,13 +3117,13 @@
         <v>43220</v>
       </c>
       <c r="B161">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="C161">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="D161">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -3134,13 +3134,13 @@
         <v>43251</v>
       </c>
       <c r="B162">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="C162">
-        <v>0.3333333432674408</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="D162">
-        <v>0.3333333432674408</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -3236,13 +3236,13 @@
         <v>43434</v>
       </c>
       <c r="B168">
-        <v>0.4166666567325592</v>
+        <v>0.4666666686534882</v>
       </c>
       <c r="C168">
-        <v>0.3452380895614624</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="D168">
-        <v>0.2380952388048172</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -3253,13 +3253,13 @@
         <v>43465</v>
       </c>
       <c r="B169">
-        <v>0.3763440847396851</v>
+        <v>0.4166666567325592</v>
       </c>
       <c r="C169">
-        <v>0.3118279576301575</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="D169">
-        <v>0.3118279576301575</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -3389,13 +3389,13 @@
         <v>43707</v>
       </c>
       <c r="B177">
-        <v>0.3030303120613098</v>
+        <v>0.3508771955966949</v>
       </c>
       <c r="C177">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="D177">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="E177">
         <v>0.2000000029802322</v>
@@ -3406,13 +3406,13 @@
         <v>43738</v>
       </c>
       <c r="B178">
-        <v>0.3030303120613098</v>
+        <v>0.3508771955966949</v>
       </c>
       <c r="C178">
-        <v>0.3030303120613098</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="D178">
-        <v>0.1939393877983093</v>
+        <v>0.224561408162117</v>
       </c>
       <c r="E178">
         <v>0.2000000029802322</v>
@@ -3432,6 +3432,23 @@
         <v>0.224561408162117</v>
       </c>
       <c r="E179">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2">
+        <v>43799</v>
+      </c>
+      <c r="B180">
+        <v>0.3508771955966949</v>
+      </c>
+      <c r="C180">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="D180">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="E180">
         <v>0.2000000029802322</v>
       </c>
     </row>

--- a/strategy/全球购策略/data/weight.xlsx
+++ b/strategy/全球购策略/data/weight.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E180"/>
+  <dimension ref="A1:E182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3049,13 +3049,13 @@
         <v>43098</v>
       </c>
       <c r="B157">
-        <v>0.4761904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="C157">
-        <v>0.261904776096344</v>
+        <v>0.3921568691730499</v>
       </c>
       <c r="D157">
-        <v>0.261904776096344</v>
+        <v>0.2156862765550613</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -3066,13 +3066,13 @@
         <v>43131</v>
       </c>
       <c r="B158">
-        <v>0.523809552192688</v>
+        <v>0.4074074029922485</v>
       </c>
       <c r="C158">
-        <v>0.2380952388048172</v>
+        <v>0.4074074029922485</v>
       </c>
       <c r="D158">
-        <v>0.2380952388048172</v>
+        <v>0.1851851791143417</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -3083,13 +3083,13 @@
         <v>43159</v>
       </c>
       <c r="B159">
-        <v>0.5555555820465088</v>
+        <v>0.4761904776096344</v>
       </c>
       <c r="C159">
-        <v>0.1388888955116272</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="D159">
-        <v>0.3055555522441864</v>
+        <v>0.261904776096344</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -3100,13 +3100,13 @@
         <v>43189</v>
       </c>
       <c r="B160">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="C160">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="D160">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -3117,13 +3117,13 @@
         <v>43220</v>
       </c>
       <c r="B161">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="C161">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="D161">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -3134,13 +3134,13 @@
         <v>43251</v>
       </c>
       <c r="B162">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="C162">
-        <v>0.2156862765550613</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="D162">
-        <v>0.3921568691730499</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -3236,13 +3236,13 @@
         <v>43434</v>
       </c>
       <c r="B168">
-        <v>0.4666666686534882</v>
+        <v>0.4166666567325592</v>
       </c>
       <c r="C168">
-        <v>0.2666666805744171</v>
+        <v>0.3452380895614624</v>
       </c>
       <c r="D168">
-        <v>0.2666666805744171</v>
+        <v>0.2380952388048172</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -3253,13 +3253,13 @@
         <v>43465</v>
       </c>
       <c r="B169">
-        <v>0.4166666567325592</v>
+        <v>0.3763440847396851</v>
       </c>
       <c r="C169">
-        <v>0.2380952388048172</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="D169">
-        <v>0.3452380895614624</v>
+        <v>0.3118279576301575</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -3389,13 +3389,13 @@
         <v>43707</v>
       </c>
       <c r="B177">
-        <v>0.3508771955966949</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="C177">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="D177">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
       <c r="E177">
         <v>0.2000000029802322</v>
@@ -3406,13 +3406,13 @@
         <v>43738</v>
       </c>
       <c r="B178">
-        <v>0.3508771955966949</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="C178">
-        <v>0.224561408162117</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="D178">
-        <v>0.224561408162117</v>
+        <v>0.1939393877983093</v>
       </c>
       <c r="E178">
         <v>0.2000000029802322</v>
@@ -3437,19 +3437,53 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B180">
-        <v>0.3508771955966949</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="C180">
-        <v>0.224561408162117</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="D180">
-        <v>0.224561408162117</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="E180">
         <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2">
+        <v>43861</v>
+      </c>
+      <c r="B181">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="C181">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="D181">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="E181">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B182">
+        <v>0.3857142925262451</v>
+      </c>
+      <c r="C182">
+        <v>0.2571428716182709</v>
+      </c>
+      <c r="D182">
+        <v>0.2571428716182709</v>
+      </c>
+      <c r="E182">
+        <v>0.1000000014901161</v>
       </c>
     </row>
   </sheetData>

--- a/strategy/全球购策略/data/weight.xlsx
+++ b/strategy/全球购策略/data/weight.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E182"/>
+  <dimension ref="A1:E184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3486,6 +3486,40 @@
         <v>0.1000000014901161</v>
       </c>
     </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B183">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="C183">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="D183">
+        <v>0.2666666805744171</v>
+      </c>
+      <c r="E183">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B184">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="C184">
+        <v>0.3508771955966949</v>
+      </c>
+      <c r="D184">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="E184">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/strategy/全球购策略/data/weight.xlsx
+++ b/strategy/全球购策略/data/weight.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:E186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3491,13 +3491,13 @@
         <v>43921</v>
       </c>
       <c r="B183">
-        <v>0.2666666805744171</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="C183">
-        <v>0.2666666805744171</v>
+        <v>0.3030303120613098</v>
       </c>
       <c r="D183">
-        <v>0.2666666805744171</v>
+        <v>0.1939393877983093</v>
       </c>
       <c r="E183">
         <v>0.2000000029802322</v>
@@ -3508,16 +3508,50 @@
         <v>43951</v>
       </c>
       <c r="B184">
-        <v>0.224561408162117</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="C184">
-        <v>0.3508771955966949</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="D184">
-        <v>0.224561408162117</v>
+        <v>0.2666666805744171</v>
       </c>
       <c r="E184">
         <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B185">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="C185">
+        <v>0.3508771955966949</v>
+      </c>
+      <c r="D185">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="E185">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B186">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="C186">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="D186">
+        <v>0.300000011920929</v>
+      </c>
+      <c r="E186">
+        <v>0.1000000014901161</v>
       </c>
     </row>
   </sheetData>

--- a/strategy/全球购策略/data/weight.xlsx
+++ b/strategy/全球购策略/data/weight.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E186"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -890,13 +890,13 @@
         <v>39233</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.01475409790873528</v>
       </c>
       <c r="C30">
-        <v>0.449999988079071</v>
+        <v>0.4426229596138</v>
       </c>
       <c r="D30">
-        <v>0.449999988079071</v>
+        <v>0.4426229596138</v>
       </c>
       <c r="E30">
         <v>0.1000000014901161</v>
@@ -924,13 +924,13 @@
         <v>39294</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.01184210553765297</v>
       </c>
       <c r="C32">
-        <v>0.3600000143051147</v>
+        <v>0.3552631437778473</v>
       </c>
       <c r="D32">
-        <v>0.5400000214576721</v>
+        <v>0.5328947305679321</v>
       </c>
       <c r="E32">
         <v>0.1000000014901161</v>
@@ -941,13 +941,13 @@
         <v>39325</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.01956521719694138</v>
       </c>
       <c r="C33">
-        <v>0.300000011920929</v>
+        <v>0.29347825050354</v>
       </c>
       <c r="D33">
-        <v>0.6000000238418579</v>
+        <v>0.5869565010070801</v>
       </c>
       <c r="E33">
         <v>0.1000000014901161</v>
@@ -958,13 +958,13 @@
         <v>39353</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.02727272734045982</v>
       </c>
       <c r="C34">
-        <v>0.0470588244497776</v>
+        <v>0.04545454680919647</v>
       </c>
       <c r="D34">
-        <v>0.7529411911964417</v>
+        <v>0.7272727489471436</v>
       </c>
       <c r="E34">
         <v>0.2000000029802322</v>
@@ -975,13 +975,13 @@
         <v>39386</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.02790697664022446</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.02790697664022446</v>
       </c>
       <c r="D35">
-        <v>0.800000011920929</v>
+        <v>0.7441860437393188</v>
       </c>
       <c r="E35">
         <v>0.2000000029802322</v>
@@ -992,13 +992,13 @@
         <v>39416</v>
       </c>
       <c r="B36">
-        <v>0.0470588244497776</v>
+        <v>0.04545454680919647</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>0.02727272734045982</v>
       </c>
       <c r="D36">
-        <v>0.7529411911964417</v>
+        <v>0.7272727489471436</v>
       </c>
       <c r="E36">
         <v>0.2000000029802322</v>
@@ -1009,13 +1009,13 @@
         <v>39447</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.02033898234367371</v>
       </c>
       <c r="C37">
-        <v>0.2434782534837723</v>
+        <v>0.2372881323099136</v>
       </c>
       <c r="D37">
-        <v>0.5565217137336731</v>
+        <v>0.5423728823661804</v>
       </c>
       <c r="E37">
         <v>0.2000000029802322</v>
@@ -1043,13 +1043,13 @@
         <v>39507</v>
       </c>
       <c r="B39">
-        <v>0.116666667163372</v>
+        <v>0.1435897499322891</v>
       </c>
       <c r="C39">
-        <v>0.2666666805744171</v>
+        <v>0.3282051384449005</v>
       </c>
       <c r="D39">
-        <v>0.4166666567325592</v>
+        <v>0.3282051384449005</v>
       </c>
       <c r="E39">
         <v>0.2000000029802322</v>
@@ -1196,13 +1196,13 @@
         <v>39780</v>
       </c>
       <c r="B48">
-        <v>0.2819047570228577</v>
+        <v>0.2989898920059204</v>
       </c>
       <c r="C48">
-        <v>0.2819047570228577</v>
+        <v>0.2989898920059204</v>
       </c>
       <c r="D48">
-        <v>0.2361904829740524</v>
+        <v>0.2020201981067657</v>
       </c>
       <c r="E48">
         <v>0.2000000029802322</v>
@@ -1315,13 +1315,13 @@
         <v>39994</v>
       </c>
       <c r="B55">
-        <v>0.300000011920929</v>
+        <v>0.29347825050354</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.01956521719694138</v>
       </c>
       <c r="D55">
-        <v>0.6000000238418579</v>
+        <v>0.5869565010070801</v>
       </c>
       <c r="E55">
         <v>0.1000000014901161</v>
@@ -1332,13 +1332,13 @@
         <v>40025</v>
       </c>
       <c r="B56">
-        <v>0.2249999940395355</v>
+        <v>0.2142857164144516</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>0.04285714402794838</v>
       </c>
       <c r="D56">
-        <v>0.675000011920929</v>
+        <v>0.6428571343421936</v>
       </c>
       <c r="E56">
         <v>0.1000000014901161</v>
@@ -1349,13 +1349,13 @@
         <v>40056</v>
       </c>
       <c r="B57">
-        <v>0.7714285850524902</v>
+        <v>0.75</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>0.02500000037252903</v>
       </c>
       <c r="D57">
-        <v>0.1285714358091354</v>
+        <v>0.125</v>
       </c>
       <c r="E57">
         <v>0.1000000014901161</v>
@@ -1366,13 +1366,13 @@
         <v>40086</v>
       </c>
       <c r="B58">
-        <v>0.8999999761581421</v>
+        <v>0.84375</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.02812499925494194</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>0.02812499925494194</v>
       </c>
       <c r="E58">
         <v>0.1000000014901161</v>
@@ -1383,13 +1383,13 @@
         <v>40116</v>
       </c>
       <c r="B59">
-        <v>0.8999999761581421</v>
+        <v>0.84375</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.02812499925494194</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>0.02812499925494194</v>
       </c>
       <c r="E59">
         <v>0.1000000014901161</v>
@@ -1400,13 +1400,13 @@
         <v>40147</v>
       </c>
       <c r="B60">
-        <v>0.8999999761581421</v>
+        <v>0.7941176295280457</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>0.05294117704033852</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>0.05294117704033852</v>
       </c>
       <c r="E60">
         <v>0.1000000014901161</v>
@@ -1587,13 +1587,13 @@
         <v>40480</v>
       </c>
       <c r="B71">
-        <v>0.4679999947547913</v>
+        <v>0.4178571403026581</v>
       </c>
       <c r="C71">
-        <v>0.2160000056028366</v>
+        <v>0.1928571462631226</v>
       </c>
       <c r="D71">
-        <v>0.2160000056028366</v>
+        <v>0.2892857193946838</v>
       </c>
       <c r="E71">
         <v>0.1000000014901161</v>
@@ -1621,13 +1621,13 @@
         <v>40543</v>
       </c>
       <c r="B73">
-        <v>0.4178571403026581</v>
+        <v>0.3774193525314331</v>
       </c>
       <c r="C73">
-        <v>0.2892857193946838</v>
+        <v>0.2612903118133545</v>
       </c>
       <c r="D73">
-        <v>0.1928571462631226</v>
+        <v>0.2612903118133545</v>
       </c>
       <c r="E73">
         <v>0.1000000014901161</v>
@@ -1876,13 +1876,13 @@
         <v>40998</v>
       </c>
       <c r="B88">
-        <v>0.3899999856948853</v>
+        <v>0.3545454442501068</v>
       </c>
       <c r="C88">
-        <v>0.3300000131130219</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="D88">
-        <v>0.1800000071525574</v>
+        <v>0.2454545497894287</v>
       </c>
       <c r="E88">
         <v>0.1000000014901161</v>
@@ -1995,13 +1995,13 @@
         <v>41213</v>
       </c>
       <c r="B95">
-        <v>0.4178571403026581</v>
+        <v>0.3774193525314331</v>
       </c>
       <c r="C95">
-        <v>0.2892857193946838</v>
+        <v>0.2612903118133545</v>
       </c>
       <c r="D95">
-        <v>0.1928571462631226</v>
+        <v>0.2612903118133545</v>
       </c>
       <c r="E95">
         <v>0.1000000014901161</v>
@@ -2012,13 +2012,13 @@
         <v>41243</v>
       </c>
       <c r="B96">
-        <v>0.4178571403026581</v>
+        <v>0.3774193525314331</v>
       </c>
       <c r="C96">
-        <v>0.2892857193946838</v>
+        <v>0.2612903118133545</v>
       </c>
       <c r="D96">
-        <v>0.1928571462631226</v>
+        <v>0.2612903118133545</v>
       </c>
       <c r="E96">
         <v>0.1000000014901161</v>
@@ -2488,13 +2488,13 @@
         <v>42094</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>0.01956521719694138</v>
       </c>
       <c r="C124">
-        <v>0.6000000238418579</v>
+        <v>0.5869565010070801</v>
       </c>
       <c r="D124">
-        <v>0.300000011920929</v>
+        <v>0.29347825050354</v>
       </c>
       <c r="E124">
         <v>0.1000000014901161</v>
@@ -2505,13 +2505,13 @@
         <v>42124</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>0.0290322583168745</v>
       </c>
       <c r="C125">
-        <v>0.449999988079071</v>
+        <v>0.4354838728904724</v>
       </c>
       <c r="D125">
-        <v>0.449999988079071</v>
+        <v>0.4354838728904724</v>
       </c>
       <c r="E125">
         <v>0.1000000014901161</v>
@@ -2522,13 +2522,13 @@
         <v>42153</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>0.01956521719694138</v>
       </c>
       <c r="C126">
-        <v>0.6000000238418579</v>
+        <v>0.5869565010070801</v>
       </c>
       <c r="D126">
-        <v>0.300000011920929</v>
+        <v>0.29347825050354</v>
       </c>
       <c r="E126">
         <v>0.1000000014901161</v>
@@ -2539,13 +2539,13 @@
         <v>42185</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>0.01956521719694138</v>
       </c>
       <c r="C127">
-        <v>0.6000000238418579</v>
+        <v>0.5869565010070801</v>
       </c>
       <c r="D127">
-        <v>0.300000011920929</v>
+        <v>0.29347825050354</v>
       </c>
       <c r="E127">
         <v>0.1000000014901161</v>
@@ -2556,13 +2556,13 @@
         <v>42216</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>0.01956521719694138</v>
       </c>
       <c r="C128">
-        <v>0.6000000238418579</v>
+        <v>0.5869565010070801</v>
       </c>
       <c r="D128">
-        <v>0.300000011920929</v>
+        <v>0.29347825050354</v>
       </c>
       <c r="E128">
         <v>0.1000000014901161</v>
@@ -2607,13 +2607,13 @@
         <v>42307</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>0.01956521719694138</v>
       </c>
       <c r="C131">
-        <v>0.6000000238418579</v>
+        <v>0.5869565010070801</v>
       </c>
       <c r="D131">
-        <v>0.300000011920929</v>
+        <v>0.29347825050354</v>
       </c>
       <c r="E131">
         <v>0.1000000014901161</v>
@@ -2624,13 +2624,13 @@
         <v>42338</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>0.01956521719694138</v>
       </c>
       <c r="C132">
-        <v>0.6000000238418579</v>
+        <v>0.5869565010070801</v>
       </c>
       <c r="D132">
-        <v>0.300000011920929</v>
+        <v>0.29347825050354</v>
       </c>
       <c r="E132">
         <v>0.1000000014901161</v>
@@ -2641,13 +2641,13 @@
         <v>42369</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>0.01898734085261822</v>
       </c>
       <c r="C133">
-        <v>0.6451612710952759</v>
+        <v>0.6329113841056824</v>
       </c>
       <c r="D133">
-        <v>0.3548386991024017</v>
+        <v>0.3481012582778931</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -2743,13 +2743,13 @@
         <v>42551</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>0.01956521719694138</v>
       </c>
       <c r="C139">
-        <v>0.6000000238418579</v>
+        <v>0.5869565010070801</v>
       </c>
       <c r="D139">
-        <v>0.300000011920929</v>
+        <v>0.29347825050354</v>
       </c>
       <c r="E139">
         <v>0.1000000014901161</v>
@@ -2760,13 +2760,13 @@
         <v>42580</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>0.04285714402794838</v>
       </c>
       <c r="C140">
-        <v>0.675000011920929</v>
+        <v>0.6428571343421936</v>
       </c>
       <c r="D140">
-        <v>0.2249999940395355</v>
+        <v>0.2142857164144516</v>
       </c>
       <c r="E140">
         <v>0.1000000014901161</v>
@@ -2777,13 +2777,13 @@
         <v>42613</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>0.04285714402794838</v>
       </c>
       <c r="C141">
-        <v>0.675000011920929</v>
+        <v>0.6428571343421936</v>
       </c>
       <c r="D141">
-        <v>0.2249999940395355</v>
+        <v>0.2142857164144516</v>
       </c>
       <c r="E141">
         <v>0.1000000014901161</v>
@@ -2794,13 +2794,13 @@
         <v>42643</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>0.08181817829608917</v>
       </c>
       <c r="C142">
-        <v>0.449999988079071</v>
+        <v>0.4090909063816071</v>
       </c>
       <c r="D142">
-        <v>0.449999988079071</v>
+        <v>0.4090909063816071</v>
       </c>
       <c r="E142">
         <v>0.1000000014901161</v>
@@ -2811,13 +2811,13 @@
         <v>42674</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>0.04285714402794838</v>
       </c>
       <c r="C143">
-        <v>0.2249999940395355</v>
+        <v>0.2142857164144516</v>
       </c>
       <c r="D143">
-        <v>0.675000011920929</v>
+        <v>0.6428571343421936</v>
       </c>
       <c r="E143">
         <v>0.1000000014901161</v>
@@ -2828,13 +2828,13 @@
         <v>42704</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>0.04285714402794838</v>
       </c>
       <c r="C144">
-        <v>0.675000011920929</v>
+        <v>0.6428571343421936</v>
       </c>
       <c r="D144">
-        <v>0.2249999940395355</v>
+        <v>0.2142857164144516</v>
       </c>
       <c r="E144">
         <v>0.1000000014901161</v>
@@ -2845,13 +2845,13 @@
         <v>42734</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>0.02654867246747017</v>
       </c>
       <c r="C145">
-        <v>0.5</v>
+        <v>0.4867256581783295</v>
       </c>
       <c r="D145">
-        <v>0.5</v>
+        <v>0.4867256581783295</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -2862,13 +2862,13 @@
         <v>42766</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>0.03614457696676254</v>
       </c>
       <c r="C146">
-        <v>0.5</v>
+        <v>0.3012048304080963</v>
       </c>
       <c r="D146">
-        <v>0.5</v>
+        <v>0.6626505851745605</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -2879,13 +2879,13 @@
         <v>42794</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>0.05660377442836761</v>
       </c>
       <c r="C147">
-        <v>0.5</v>
+        <v>0.4716981053352356</v>
       </c>
       <c r="D147">
-        <v>0.5</v>
+        <v>0.4716981053352356</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -3066,13 +3066,13 @@
         <v>43131</v>
       </c>
       <c r="B158">
-        <v>0.4074074029922485</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="C158">
-        <v>0.4074074029922485</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="D158">
-        <v>0.1851851791143417</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -3542,15 +3542,49 @@
         <v>44012</v>
       </c>
       <c r="B186">
-        <v>0.300000011920929</v>
+        <v>0.5400000214576721</v>
       </c>
       <c r="C186">
-        <v>0.300000011920929</v>
+        <v>0.2700000107288361</v>
       </c>
       <c r="D186">
-        <v>0.300000011920929</v>
+        <v>0.09000000357627869</v>
       </c>
       <c r="E186">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B187">
+        <v>0.3857142925262451</v>
+      </c>
+      <c r="C187">
+        <v>0.3857142925262451</v>
+      </c>
+      <c r="D187">
+        <v>0.1285714358091354</v>
+      </c>
+      <c r="E187">
+        <v>0.1000000014901161</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B188">
+        <v>0.2142857164144516</v>
+      </c>
+      <c r="C188">
+        <v>0.6428571343421936</v>
+      </c>
+      <c r="D188">
+        <v>0.04285714402794838</v>
+      </c>
+      <c r="E188">
         <v>0.1000000014901161</v>
       </c>
     </row>
